--- a/Data/Call/Call_CRP.xlsx
+++ b/Data/Call/Call_CRP.xlsx
@@ -570,31 +570,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D2">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H2">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="I2">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="J2">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -602,31 +602,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -672,25 +672,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -698,25 +698,25 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -765,28 +765,28 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -794,31 +794,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -826,31 +826,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -858,31 +858,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G11">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H11">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -893,22 +893,22 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -922,31 +922,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -954,31 +954,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -986,31 +986,31 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1018,31 +1018,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
         <v>10</v>
       </c>
-      <c r="E16">
-        <v>9</v>
-      </c>
       <c r="F16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>8</v>
-      </c>
-      <c r="H16">
-        <v>11</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1050,13 +1050,13 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>6</v>
       </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
       <c r="D17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1068,13 +1068,13 @@
         <v>14</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1082,31 +1082,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G18">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J18">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1114,31 +1114,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>8</v>
-      </c>
-      <c r="G19">
-        <v>15</v>
-      </c>
-      <c r="H19">
-        <v>8</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1178,31 +1178,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G21">
         <v>6</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1210,31 +1210,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1274,31 +1274,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1306,7 +1306,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1338,31 +1338,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F26">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G26">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H26">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1370,31 +1370,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H27">
         <v>4</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1402,25 +1402,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1434,25 +1434,25 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
         <v>8</v>
       </c>
-      <c r="E29">
-        <v>7</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
       <c r="G29">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1498,31 +1498,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1530,31 +1530,31 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+      <c r="F32">
         <v>16</v>
       </c>
-      <c r="C32">
+      <c r="G32">
+        <v>17</v>
+      </c>
+      <c r="H32">
+        <v>11</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
         <v>2</v>
-      </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32">
-        <v>8</v>
-      </c>
-      <c r="F32">
-        <v>11</v>
-      </c>
-      <c r="G32">
-        <v>11</v>
-      </c>
-      <c r="H32">
-        <v>9</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1562,31 +1562,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
         <v>12</v>
       </c>
-      <c r="F33">
-        <v>10</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
-      </c>
       <c r="H33">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I33">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J33">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1594,31 +1594,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
         <v>8</v>
       </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-      <c r="H34">
-        <v>14</v>
-      </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1626,31 +1626,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
         <v>8</v>
       </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
         <v>9</v>
-      </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>8</v>
-      </c>
-      <c r="I35">
-        <v>6</v>
-      </c>
-      <c r="J35">
-        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1658,31 +1658,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1722,31 +1722,31 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="H38">
         <v>8</v>
       </c>
-      <c r="C38">
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
         <v>10</v>
-      </c>
-      <c r="D38">
-        <v>14</v>
-      </c>
-      <c r="E38">
-        <v>7</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-      <c r="H38">
-        <v>13</v>
-      </c>
-      <c r="I38">
-        <v>5</v>
-      </c>
-      <c r="J38">
-        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1786,31 +1786,31 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>6</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
       <c r="G40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <v>5</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1821,28 +1821,28 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1882,31 +1882,31 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
